--- a/out_booth_398/suspect_summary.xlsx
+++ b/out_booth_398/suspect_summary.xlsx
@@ -2090,10 +2090,18 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Serial number 22 does not have any valid parent or spouse relationship with other voters in house number 1/2004 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2156,10 +2164,18 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Serial number 23 does not have any valid parent or spouse relationship with other voters in house number 1/2004 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -7010,10 +7026,18 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Serial number 90 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7142,10 +7166,18 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Serial number 92 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7340,10 +7372,18 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Serial number 95 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7406,18 +7446,10 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Serial number 96 is the only voter listed under house number 4/1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7628,18 +7660,10 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Serial number 99 does not have any valid parent or spouse relationship with other voters in house number 4/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7702,18 +7726,10 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>Serial number 100 does not have any valid parent or spouse relationship with other voters in house number 4/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8048,10 +8064,18 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Serial number 105 does not have any valid parent or spouse relationship with other voters in house number 4-3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9108,12 +9132,12 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Serial number 121 is the only voter listed under house number 4/6 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 121 does not have any valid parent or spouse relationship with other voters in house number 4/6 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -9392,18 +9416,10 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>Serial number 125 is the only voter listed under house number 4/9 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9796,18 +9812,10 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>Serial number 131 is the only voter listed under house number 4/10 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10228,12 +10236,12 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Serial number 137 is the only voter listed under house number 4-12-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 137 does not have any valid parent or spouse relationship with other voters in house number 4-12-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -10376,12 +10384,12 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Serial number 139 is the only voter listed under house number 4/12/1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 139 does not have any valid parent or spouse relationship with other voters in house number 4/12/1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -10932,10 +10940,18 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Serial number 147 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11064,10 +11080,18 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Serial number 149 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11328,10 +11352,18 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11394,10 +11426,18 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11460,18 +11500,10 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>1</v>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>Serial number 155 is the only voter listed under house number 4/17 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11534,10 +11566,18 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 4-17 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11600,10 +11640,18 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Serial number 157 does not have any valid parent or spouse relationship with other voters in house number 4-17 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -12548,18 +12596,10 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>1</v>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>Serial number 171 is the only voter listed under house number 4/23 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -13158,10 +13198,18 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Serial number 180 does not have any valid parent or spouse relationship with other voters in house number 4-28 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13422,18 +13470,10 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>1</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>Serial number 184 is the only voter listed under house number 4/28 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -14592,16 +14632,16 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 201.</t>
+          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 201. | Serial number 201 does not have any valid parent or spouse relationship with other voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -15222,12 +15262,12 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Serial number 210 is the only voter listed under house number 4-39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 210 does not have any valid parent or spouse relationship with other voters in house number 4-39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -15292,10 +15332,18 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>0</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Serial number 211 does not have any valid parent or spouse relationship with other voters in house number 4/39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -15358,10 +15406,18 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>0</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>Serial number 212 does not have any valid parent or spouse relationship with other voters in house number 4/39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -15556,10 +15612,18 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Serial number 215 does not have any valid parent or spouse relationship with other voters in house number 4-40 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15622,18 +15686,10 @@
         </is>
       </c>
       <c r="N217" t="n">
-        <v>1</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>Serial number 216 is the only voter listed under house number 4/40 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -15968,10 +16024,18 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>0</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Serial number 221 does not have any valid parent or spouse relationship with other voters in house number 4/41 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -16454,18 +16518,10 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>1</v>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>Serial number 228 is the only voter listed under house number 4/43 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -16792,18 +16848,10 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>1</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>Serial number 233 is the only voter listed under house number 4/44 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -17006,18 +17054,10 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>1</v>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>Serial number 236 does not have any valid parent or spouse relationship with other voters in house number 4/48 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -17690,18 +17730,10 @@
         </is>
       </c>
       <c r="N247" t="n">
-        <v>1</v>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P247" t="inlineStr">
-        <is>
-          <t>Serial number 246 is the only voter listed under house number 4/52 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -18728,10 +18760,18 @@
         </is>
       </c>
       <c r="N262" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>Serial number 261 does not have any valid parent or spouse relationship with other voters in house number 4-56 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -18794,10 +18834,18 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>0</v>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>Serial number 262 does not have any valid parent or spouse relationship with other voters in house number 4-56 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -19330,10 +19378,18 @@
         </is>
       </c>
       <c r="N271" t="n">
-        <v>0</v>
-      </c>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>Serial number 270 does not have any valid parent or spouse relationship with other voters in house number 4-60 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -20582,10 +20638,18 @@
         </is>
       </c>
       <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="inlineStr"/>
-      <c r="P289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Serial number 288 does not have any valid parent or spouse relationship with other voters in house number 4-73 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -20780,10 +20844,18 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>0</v>
-      </c>
-      <c r="O292" t="inlineStr"/>
-      <c r="P292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>Serial number 291 does not have any valid parent or spouse relationship with other voters in house number 4-73 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -21374,18 +21446,10 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>1</v>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>Serial number 300 is the only voter listed under house number 4/75 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -21650,12 +21714,12 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Serial number 304 is the only voter listed under house number 4/76 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 304 does not have any valid parent or spouse relationship with other voters in house number 4/76 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -22568,18 +22632,10 @@
         </is>
       </c>
       <c r="N318" t="n">
-        <v>1</v>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>Serial number 317 does not have any valid parent or spouse relationship with other voters in house number 4/79 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -22642,18 +22698,10 @@
         </is>
       </c>
       <c r="N319" t="n">
-        <v>1</v>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>Serial number 318 is the only voter listed under house number 4-79 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -23260,10 +23308,18 @@
         </is>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
-      </c>
-      <c r="O328" t="inlineStr"/>
-      <c r="P328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>Serial number 327 does not have any valid parent or spouse relationship with other voters in house number 4-83 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -23598,10 +23654,18 @@
         </is>
       </c>
       <c r="N333" t="n">
-        <v>0</v>
-      </c>
-      <c r="O333" t="inlineStr"/>
-      <c r="P333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>Serial number 332 does not have any valid parent or spouse relationship with other voters in house number 4/84 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23796,10 +23860,18 @@
         </is>
       </c>
       <c r="N336" t="n">
-        <v>0</v>
-      </c>
-      <c r="O336" t="inlineStr"/>
-      <c r="P336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>Serial number 335 does not have any valid parent or spouse relationship with other voters in house number 4-85 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -24258,18 +24330,10 @@
         </is>
       </c>
       <c r="N343" t="n">
-        <v>1</v>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>Serial number 342 is the only voter listed under house number 4/86 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -24468,12 +24532,12 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>Serial number 345 is the only voter listed under house number 4-88A on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 345 does not have any valid parent or spouse relationship with other voters in house number 4-88A on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -24616,12 +24680,12 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>Serial number 347 is the only voter listed under house number 4/88A on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 347 does not have any valid parent or spouse relationship with other voters in house number 4/88A on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -24826,10 +24890,18 @@
         </is>
       </c>
       <c r="N351" t="n">
-        <v>0</v>
-      </c>
-      <c r="O351" t="inlineStr"/>
-      <c r="P351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>Serial number 350 does not have any valid parent or spouse relationship with other voters in house number 4-90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -24892,10 +24964,18 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>0</v>
-      </c>
-      <c r="O352" t="inlineStr"/>
-      <c r="P352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>Serial number 351 does not have any valid parent or spouse relationship with other voters in house number 4/90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -24958,10 +25038,18 @@
         </is>
       </c>
       <c r="N353" t="n">
-        <v>0</v>
-      </c>
-      <c r="O353" t="inlineStr"/>
-      <c r="P353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>Serial number 352 does not have any valid parent or spouse relationship with other voters in house number 4-90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -25700,10 +25788,18 @@
         </is>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
-      </c>
-      <c r="O364" t="inlineStr"/>
-      <c r="P364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>Serial number 363 does not have any valid parent or spouse relationship with other voters in house number 4-92 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -25766,10 +25862,18 @@
         </is>
       </c>
       <c r="N365" t="n">
-        <v>0</v>
-      </c>
-      <c r="O365" t="inlineStr"/>
-      <c r="P365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>Serial number 364 does not have any valid parent or spouse relationship with other voters in house number 4-92 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25898,18 +26002,10 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>1</v>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P367" t="inlineStr">
-        <is>
-          <t>Serial number 366 does not have any valid parent or spouse relationship with other voters in house number 4-94 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O367" t="inlineStr"/>
+      <c r="P367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -26038,18 +26134,10 @@
         </is>
       </c>
       <c r="N369" t="n">
-        <v>1</v>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P369" t="inlineStr">
-        <is>
-          <t>Serial number 368 does not have any valid parent or spouse relationship with other voters in house number 4-94 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O369" t="inlineStr"/>
+      <c r="P369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -26528,12 +26616,12 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME, UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
         <is>
-          <t>Serial number 375 is the only voter listed under house number 4-95B on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 375 has age 5, below voting age.</t>
+          <t>Serial number 375 does not have any valid parent or spouse relationship with other voters in house number 4-95B on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 375 has age 5, below voting age.</t>
         </is>
       </c>
     </row>
@@ -26598,18 +26686,10 @@
         </is>
       </c>
       <c r="N377" t="n">
-        <v>1</v>
-      </c>
-      <c r="O377" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P377" t="inlineStr">
-        <is>
-          <t>Serial number 376 is the only voter listed under house number 4/95B on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O377" t="inlineStr"/>
+      <c r="P377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -27884,18 +27964,10 @@
         </is>
       </c>
       <c r="N396" t="n">
-        <v>1</v>
-      </c>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P396" t="inlineStr">
-        <is>
-          <t>Serial number 395 does not have any valid parent or spouse relationship with other voters in house number 4/105 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -27958,18 +28030,10 @@
         </is>
       </c>
       <c r="N397" t="n">
-        <v>1</v>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P397" t="inlineStr">
-        <is>
-          <t>Serial number 396 does not have any valid parent or spouse relationship with other voters in house number 4/105 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -28032,18 +28096,10 @@
         </is>
       </c>
       <c r="N398" t="n">
-        <v>1</v>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P398" t="inlineStr">
-        <is>
-          <t>Serial number 397 does not have any valid parent or spouse relationship with other voters in house number 4/105 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -28320,10 +28376,18 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>0</v>
-      </c>
-      <c r="O402" t="inlineStr"/>
-      <c r="P402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Serial number 401 does not have any valid parent or spouse relationship with other voters in house number 4-106 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -28452,10 +28516,18 @@
         </is>
       </c>
       <c r="N404" t="n">
-        <v>0</v>
-      </c>
-      <c r="O404" t="inlineStr"/>
-      <c r="P404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>Serial number 403 does not have any valid parent or spouse relationship with other voters in house number 4-106 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -28522,12 +28594,12 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P405" t="inlineStr">
         <is>
-          <t>Serial number 404 is the only voter listed under house number 4-107 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 404 does not have any valid parent or spouse relationship with other voters in house number 4-107 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -28596,12 +28668,12 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P406" t="inlineStr">
         <is>
-          <t>Serial number 405 is the only voter listed under house number 4/107 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 405 does not have any valid parent or spouse relationship with other voters in house number 4/107 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -28670,12 +28742,12 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME, UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>Serial number 406 is the only voter listed under house number 4-108 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 406 has age 2, below voting age.</t>
+          <t>Serial number 406 does not have any valid parent or spouse relationship with other voters in house number 4-108 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 406 has age 2, below voting age.</t>
         </is>
       </c>
     </row>
@@ -28744,12 +28816,12 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>Serial number 407 is the only voter listed under house number 4/108 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 407 does not have any valid parent or spouse relationship with other voters in house number 4/108 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -28946,10 +29018,18 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>0</v>
-      </c>
-      <c r="O411" t="inlineStr"/>
-      <c r="P411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>Serial number 410 does not have any valid parent or spouse relationship with other voters in house number 4-109 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -29078,18 +29158,10 @@
         </is>
       </c>
       <c r="N413" t="n">
-        <v>1</v>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P413" t="inlineStr">
-        <is>
-          <t>Serial number 412 does not have any valid parent or spouse relationship with other voters in house number 4/110 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -29152,10 +29224,18 @@
         </is>
       </c>
       <c r="N414" t="n">
-        <v>0</v>
-      </c>
-      <c r="O414" t="inlineStr"/>
-      <c r="P414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>Serial number 413 does not have any valid parent or spouse relationship with other voters in house number 4-110 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -29284,18 +29364,10 @@
         </is>
       </c>
       <c r="N416" t="n">
-        <v>1</v>
-      </c>
-      <c r="O416" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P416" t="inlineStr">
-        <is>
-          <t>Serial number 415 does not have any valid parent or spouse relationship with other voters in house number 4/110 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -29572,10 +29644,18 @@
         </is>
       </c>
       <c r="N420" t="n">
-        <v>0</v>
-      </c>
-      <c r="O420" t="inlineStr"/>
-      <c r="P420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>Serial number 419 does not have any valid parent or spouse relationship with other voters in house number 4-112 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -29704,10 +29784,18 @@
         </is>
       </c>
       <c r="N422" t="n">
-        <v>0</v>
-      </c>
-      <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>Serial number 421 does not have any valid parent or spouse relationship with other voters in house number 4-112 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -29984,18 +30072,10 @@
         </is>
       </c>
       <c r="N426" t="n">
-        <v>1</v>
-      </c>
-      <c r="O426" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P426" t="inlineStr">
-        <is>
-          <t>Serial number 425 does not have any valid parent or spouse relationship with other voters in house number 4-112-3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -30062,12 +30142,12 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>Serial number 426 is the only voter listed under house number 4/112-3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 426 does not have any valid parent or spouse relationship with other voters in house number 4/112-3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -30346,10 +30426,18 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>0</v>
-      </c>
-      <c r="O431" t="inlineStr"/>
-      <c r="P431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>Serial number 430 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -30610,10 +30698,18 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>0</v>
-      </c>
-      <c r="O435" t="inlineStr"/>
-      <c r="P435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>Serial number 434 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -30676,10 +30772,18 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>0</v>
-      </c>
-      <c r="O436" t="inlineStr"/>
-      <c r="P436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -31698,18 +31802,10 @@
         </is>
       </c>
       <c r="N451" t="n">
-        <v>1</v>
-      </c>
-      <c r="O451" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P451" t="inlineStr">
-        <is>
-          <t>Serial number 450 does not have any valid parent or spouse relationship with other voters in house number 4/121 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -31838,10 +31934,18 @@
         </is>
       </c>
       <c r="N453" t="n">
-        <v>0</v>
-      </c>
-      <c r="O453" t="inlineStr"/>
-      <c r="P453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>Serial number 452 does not have any valid parent or spouse relationship with other voters in house number 4-122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -31904,18 +32008,10 @@
         </is>
       </c>
       <c r="N454" t="n">
-        <v>1</v>
-      </c>
-      <c r="O454" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P454" t="inlineStr">
-        <is>
-          <t>Serial number 453 does not have any valid parent or spouse relationship with other voters in house number 4/122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -31978,10 +32074,18 @@
         </is>
       </c>
       <c r="N455" t="n">
-        <v>0</v>
-      </c>
-      <c r="O455" t="inlineStr"/>
-      <c r="P455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>Serial number 454 does not have any valid parent or spouse relationship with other voters in house number 4-122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -32044,18 +32148,10 @@
         </is>
       </c>
       <c r="N456" t="n">
-        <v>1</v>
-      </c>
-      <c r="O456" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P456" t="inlineStr">
-        <is>
-          <t>Serial number 455 does not have any valid parent or spouse relationship with other voters in house number 4/122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -32728,10 +32824,18 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>0</v>
-      </c>
-      <c r="O466" t="inlineStr"/>
-      <c r="P466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 4-124 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -32798,12 +32902,12 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>Serial number 466 is the only voter listed under house number 4/124 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 466 does not have any valid parent or spouse relationship with other voters in house number 4/124 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -33288,10 +33392,18 @@
         </is>
       </c>
       <c r="N474" t="n">
-        <v>0</v>
-      </c>
-      <c r="O474" t="inlineStr"/>
-      <c r="P474" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>Serial number 473 does not have any valid parent or spouse relationship with other voters in house number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 473, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -33354,10 +33466,18 @@
         </is>
       </c>
       <c r="N475" t="n">
-        <v>0</v>
-      </c>
-      <c r="O475" t="inlineStr"/>
-      <c r="P475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 474, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -33420,10 +33540,18 @@
         </is>
       </c>
       <c r="N476" t="n">
-        <v>0</v>
-      </c>
-      <c r="O476" t="inlineStr"/>
-      <c r="P476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 475, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -33486,10 +33614,18 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>0</v>
-      </c>
-      <c r="O477" t="inlineStr"/>
-      <c r="P477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 476, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -33552,10 +33688,18 @@
         </is>
       </c>
       <c r="N478" t="n">
-        <v>0</v>
-      </c>
-      <c r="O478" t="inlineStr"/>
-      <c r="P478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 477, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -33618,10 +33762,18 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>0</v>
-      </c>
-      <c r="O479" t="inlineStr"/>
-      <c r="P479" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 478, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -33684,10 +33836,18 @@
         </is>
       </c>
       <c r="N480" t="n">
-        <v>0</v>
-      </c>
-      <c r="O480" t="inlineStr"/>
-      <c r="P480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 479, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -33750,10 +33910,18 @@
         </is>
       </c>
       <c r="N481" t="n">
-        <v>0</v>
-      </c>
-      <c r="O481" t="inlineStr"/>
-      <c r="P481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 480, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -33816,10 +33984,18 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>0</v>
-      </c>
-      <c r="O482" t="inlineStr"/>
-      <c r="P482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 481, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -33882,10 +34058,18 @@
         </is>
       </c>
       <c r="N483" t="n">
-        <v>0</v>
-      </c>
-      <c r="O483" t="inlineStr"/>
-      <c r="P483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 482, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -33948,10 +34132,18 @@
         </is>
       </c>
       <c r="N484" t="n">
-        <v>0</v>
-      </c>
-      <c r="O484" t="inlineStr"/>
-      <c r="P484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 483, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -34014,10 +34206,18 @@
         </is>
       </c>
       <c r="N485" t="n">
-        <v>0</v>
-      </c>
-      <c r="O485" t="inlineStr"/>
-      <c r="P485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 484, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -34080,10 +34280,18 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>0</v>
-      </c>
-      <c r="O486" t="inlineStr"/>
-      <c r="P486" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>Serial number 485 does not have any valid parent or spouse relationship with other voters in house number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 485, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -35250,10 +35458,18 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>0</v>
-      </c>
-      <c r="O503" t="inlineStr"/>
-      <c r="P503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Serial number 502 does not have any valid parent or spouse relationship with other voters in house number 4-133 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -35316,10 +35532,18 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
-      </c>
-      <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 4-133 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -35382,10 +35606,18 @@
         </is>
       </c>
       <c r="N505" t="n">
-        <v>0</v>
-      </c>
-      <c r="O505" t="inlineStr"/>
-      <c r="P505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>Serial number 504 does not have any valid parent or spouse relationship with other voters in house number 4-135 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -35992,18 +36224,10 @@
         </is>
       </c>
       <c r="N514" t="n">
-        <v>1</v>
-      </c>
-      <c r="O514" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P514" t="inlineStr">
-        <is>
-          <t>Serial number 513 is the only voter listed under house number 4/137 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -36338,18 +36562,10 @@
         </is>
       </c>
       <c r="N519" t="n">
-        <v>1</v>
-      </c>
-      <c r="O519" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P519" t="inlineStr">
-        <is>
-          <t>Serial number 518 is the only voter listed under house number 4/139 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -36412,18 +36628,10 @@
         </is>
       </c>
       <c r="N520" t="n">
-        <v>1</v>
-      </c>
-      <c r="O520" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P520" t="inlineStr">
-        <is>
-          <t>Serial number 519 is the only voter listed under house number 4/141 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -36964,10 +37172,18 @@
         </is>
       </c>
       <c r="N528" t="n">
-        <v>0</v>
-      </c>
-      <c r="O528" t="inlineStr"/>
-      <c r="P528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>Serial number 527 does not have any valid parent or spouse relationship with other voters in house number 4-142 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -37030,10 +37246,18 @@
         </is>
       </c>
       <c r="N529" t="n">
-        <v>0</v>
-      </c>
-      <c r="O529" t="inlineStr"/>
-      <c r="P529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>Serial number 528 does not have any valid parent or spouse relationship with other voters in house number 4-142 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -37516,18 +37740,10 @@
         </is>
       </c>
       <c r="N536" t="n">
-        <v>1</v>
-      </c>
-      <c r="O536" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P536" t="inlineStr">
-        <is>
-          <t>Serial number 535 does not have any valid parent or spouse relationship with other voters in house number 4/144 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -37590,18 +37806,10 @@
         </is>
       </c>
       <c r="N537" t="n">
-        <v>1</v>
-      </c>
-      <c r="O537" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P537" t="inlineStr">
-        <is>
-          <t>Serial number 536 does not have any valid parent or spouse relationship with other voters in house number 4/144 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -38204,12 +38412,12 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P546" t="inlineStr">
         <is>
-          <t>Serial number 545 is the only voter listed under house number 4-147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 545 does not have any valid parent or spouse relationship with other voters in house number 4-147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -38278,12 +38486,12 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P547" t="inlineStr">
         <is>
-          <t>Serial number 546 is the only voter listed under house number 4/147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 546 does not have any valid parent or spouse relationship with other voters in house number 4/147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -38414,10 +38622,18 @@
         </is>
       </c>
       <c r="N549" t="n">
-        <v>0</v>
-      </c>
-      <c r="O549" t="inlineStr"/>
-      <c r="P549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>Serial number 548 does not have any valid parent or spouse relationship with other voters in house number 4/148-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -38678,16 +38894,16 @@
         </is>
       </c>
       <c r="N553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P553" t="inlineStr">
         <is>
-          <t>Serial number 552 is the only voter listed under house number 4/149 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 552 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 552 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -38904,12 +39120,12 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P556" t="inlineStr">
         <is>
-          <t>Serial number 555 is the only voter listed under house number 4/150 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 555 does not have any valid parent or spouse relationship with other voters in house number 4/150 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -39180,10 +39396,18 @@
         </is>
       </c>
       <c r="N560" t="n">
-        <v>0</v>
-      </c>
-      <c r="O560" t="inlineStr"/>
-      <c r="P560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>Serial number 559 does not have any valid parent or spouse relationship with other voters in house number 4-153 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -39468,10 +39692,18 @@
         </is>
       </c>
       <c r="N564" t="n">
-        <v>0</v>
-      </c>
-      <c r="O564" t="inlineStr"/>
-      <c r="P564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>Serial number 563 does not have any valid parent or spouse relationship with other voters in house number 4-156 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -39534,16 +39766,16 @@
         </is>
       </c>
       <c r="N565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P565" t="inlineStr">
         <is>
-          <t>Serial number 564 has age 2, below voting age.</t>
+          <t>Serial number 564 does not have any valid parent or spouse relationship with other voters in house number 4-156 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 564 has age 2, below voting age.</t>
         </is>
       </c>
     </row>
@@ -40012,10 +40244,18 @@
         </is>
       </c>
       <c r="N572" t="n">
-        <v>0</v>
-      </c>
-      <c r="O572" t="inlineStr"/>
-      <c r="P572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P572" t="inlineStr">
+        <is>
+          <t>Serial number 571 does not have any valid parent or spouse relationship with other voters in house number 4/159 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -40210,10 +40450,18 @@
         </is>
       </c>
       <c r="N575" t="n">
-        <v>0</v>
-      </c>
-      <c r="O575" t="inlineStr"/>
-      <c r="P575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P575" t="inlineStr">
+        <is>
+          <t>Serial number 574 does not have any valid parent or spouse relationship with other voters in house number 4/159 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -41356,18 +41604,10 @@
         </is>
       </c>
       <c r="N592" t="n">
-        <v>1</v>
-      </c>
-      <c r="O592" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P592" t="inlineStr">
-        <is>
-          <t>Serial number 591 is the only voter listed under house number 4/167 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -42464,12 +42704,12 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P608" t="inlineStr">
         <is>
-          <t>Serial number 607 is the only voter listed under house number 4/174 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 607 does not have any valid parent or spouse relationship with other voters in house number 4/174 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -42600,10 +42840,18 @@
         </is>
       </c>
       <c r="N610" t="n">
-        <v>0</v>
-      </c>
-      <c r="O610" t="inlineStr"/>
-      <c r="P610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P610" t="inlineStr">
+        <is>
+          <t>Serial number 609 does not have any valid parent or spouse relationship with other voters in house number 4-176 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -43066,12 +43314,12 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P617" t="inlineStr">
         <is>
-          <t>Serial number 616 is the only voter listed under house number 4-178 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 616 does not have any valid parent or spouse relationship with other voters in house number 4-178 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -43136,18 +43384,10 @@
         </is>
       </c>
       <c r="N618" t="n">
-        <v>1</v>
-      </c>
-      <c r="O618" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P618" t="inlineStr">
-        <is>
-          <t>Serial number 617 is the only voter listed under house number 4/178 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -43642,12 +43882,12 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P625" t="inlineStr">
         <is>
-          <t>Serial number 624 is the only voter listed under house number 4/180 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 624 does not have any valid parent or spouse relationship with other voters in house number 4/180 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -43778,16 +44018,16 @@
         </is>
       </c>
       <c r="N627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P627" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 626.</t>
+          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 626. | Serial number 626 does not have any valid parent or spouse relationship with other voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -44074,10 +44314,18 @@
         </is>
       </c>
       <c r="N631" t="n">
-        <v>0</v>
-      </c>
-      <c r="O631" t="inlineStr"/>
-      <c r="P631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P631" t="inlineStr">
+        <is>
+          <t>Serial number 630 does not have any valid parent or spouse relationship with other voters in house number 4-185 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -44140,10 +44388,18 @@
         </is>
       </c>
       <c r="N632" t="n">
-        <v>0</v>
-      </c>
-      <c r="O632" t="inlineStr"/>
-      <c r="P632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P632" t="inlineStr">
+        <is>
+          <t>Serial number 631 does not have any valid parent or spouse relationship with other voters in house number 4-185 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -44746,12 +45002,12 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
         <is>
-          <t>Serial number 640 is the only voter listed under house number 4/188 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 640 has invalid age value 0.</t>
+          <t>Serial number 640 does not have any valid parent or spouse relationship with other voters in house number 4/188 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 640 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -45582,18 +45838,10 @@
         </is>
       </c>
       <c r="N653" t="n">
-        <v>1</v>
-      </c>
-      <c r="O653" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P653" t="inlineStr">
-        <is>
-          <t>Serial number 652 is the only voter listed under house number 4/193 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -46076,18 +46324,10 @@
         </is>
       </c>
       <c r="N660" t="n">
-        <v>1</v>
-      </c>
-      <c r="O660" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P660" t="inlineStr">
-        <is>
-          <t>Serial number 659 is the only voter listed under house number 4/196 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -46368,12 +46608,12 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME, UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P664" t="inlineStr">
         <is>
-          <t>Serial number 663 is the only voter listed under house number 4/197 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 663 has age 2, below voting age.</t>
+          <t>Serial number 663 does not have any valid parent or spouse relationship with other voters in house number 4/197 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 663 has age 2, below voting age.</t>
         </is>
       </c>
     </row>
@@ -47460,10 +47700,18 @@
         </is>
       </c>
       <c r="N680" t="n">
-        <v>0</v>
-      </c>
-      <c r="O680" t="inlineStr"/>
-      <c r="P680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O680" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P680" t="inlineStr">
+        <is>
+          <t>Serial number 679 does not have any valid parent or spouse relationship with other voters in house number 4-202 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -47530,12 +47778,12 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P681" t="inlineStr">
         <is>
-          <t>Serial number 680 is the only voter listed under house number 4/202 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 680 does not have any valid parent or spouse relationship with other voters in house number 4/202 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -47930,18 +48178,10 @@
         </is>
       </c>
       <c r="N687" t="n">
-        <v>1</v>
-      </c>
-      <c r="O687" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P687" t="inlineStr">
-        <is>
-          <t>Serial number 686 is the only voter listed under house number 4/204 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O687" t="inlineStr"/>
+      <c r="P687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -48556,10 +48796,18 @@
         </is>
       </c>
       <c r="N696" t="n">
-        <v>0</v>
-      </c>
-      <c r="O696" t="inlineStr"/>
-      <c r="P696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P696" t="inlineStr">
+        <is>
+          <t>Serial number 695 does not have any valid parent or spouse relationship with other voters in house number 4-208 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -48820,10 +49068,18 @@
         </is>
       </c>
       <c r="N700" t="n">
-        <v>0</v>
-      </c>
-      <c r="O700" t="inlineStr"/>
-      <c r="P700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P700" t="inlineStr">
+        <is>
+          <t>Serial number 699 does not have any valid parent or spouse relationship with other voters in house number 4-208 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -49018,18 +49274,10 @@
         </is>
       </c>
       <c r="N703" t="n">
-        <v>1</v>
-      </c>
-      <c r="O703" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P703" t="inlineStr">
-        <is>
-          <t>Serial number 702 is the only voter listed under house number 4/208-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -50402,18 +50650,10 @@
         </is>
       </c>
       <c r="N723" t="n">
-        <v>1</v>
-      </c>
-      <c r="O723" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P723" t="inlineStr">
-        <is>
-          <t>Serial number 722 is the only voter listed under house number 4/218 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -51514,10 +51754,18 @@
         </is>
       </c>
       <c r="N739" t="n">
-        <v>0</v>
-      </c>
-      <c r="O739" t="inlineStr"/>
-      <c r="P739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O739" t="inlineStr">
+        <is>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
+        </is>
+      </c>
+      <c r="P739" t="inlineStr">
+        <is>
+          <t>Multiple voters in house number 4-226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 738.</t>
+        </is>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -51650,12 +51898,12 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P741" t="inlineStr">
         <is>
-          <t>Serial number 740 is the only voter listed under house number 4/226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Multiple voters in house number 4/226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 740.</t>
         </is>
       </c>
     </row>
@@ -52730,12 +52978,12 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P757" t="inlineStr">
         <is>
-          <t>Serial number 756 is the only voter listed under house number 4/231 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 756 does not have any valid parent or spouse relationship with other voters in house number 4/231 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -53002,12 +53250,12 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P761" t="inlineStr">
         <is>
-          <t>Serial number 760 is the only voter listed under house number 4-235 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 760 does not have any valid parent or spouse relationship with other voters in house number 4-235 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -53076,12 +53324,12 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P762" t="inlineStr">
         <is>
-          <t>Serial number 761 is the only voter listed under house number 4/235 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 761 does not have any valid parent or spouse relationship with other voters in house number 4/235 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -53616,10 +53864,18 @@
         </is>
       </c>
       <c r="N770" t="n">
-        <v>0</v>
-      </c>
-      <c r="O770" t="inlineStr"/>
-      <c r="P770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O770" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P770" t="inlineStr">
+        <is>
+          <t>Serial number 769 does not have any valid parent or spouse relationship with other voters in house number 4/238 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -53814,10 +54070,18 @@
         </is>
       </c>
       <c r="N773" t="n">
-        <v>0</v>
-      </c>
-      <c r="O773" t="inlineStr"/>
-      <c r="P773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O773" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P773" t="inlineStr">
+        <is>
+          <t>Serial number 772 does not have any valid parent or spouse relationship with other voters in house number 4/238 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -54350,18 +54614,10 @@
         </is>
       </c>
       <c r="N781" t="n">
-        <v>1</v>
-      </c>
-      <c r="O781" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P781" t="inlineStr">
-        <is>
-          <t>Serial number 780 is the only voter listed under house number 4/241 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O781" t="inlineStr"/>
+      <c r="P781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -54564,10 +54820,18 @@
         </is>
       </c>
       <c r="N784" t="n">
-        <v>0</v>
-      </c>
-      <c r="O784" t="inlineStr"/>
-      <c r="P784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P784" t="inlineStr">
+        <is>
+          <t>Serial number 783 does not have any valid parent or spouse relationship with other voters in house number 4-243 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -54894,18 +55158,10 @@
         </is>
       </c>
       <c r="N789" t="n">
-        <v>1</v>
-      </c>
-      <c r="O789" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P789" t="inlineStr">
-        <is>
-          <t>Serial number 788 is the only voter listed under house number 4/243 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O789" t="inlineStr"/>
+      <c r="P789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -55182,18 +55438,10 @@
         </is>
       </c>
       <c r="N793" t="n">
-        <v>1</v>
-      </c>
-      <c r="O793" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P793" t="inlineStr">
-        <is>
-          <t>Serial number 792 is the only voter listed under house number 4-245-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O793" t="inlineStr"/>
+      <c r="P793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -55256,18 +55504,10 @@
         </is>
       </c>
       <c r="N794" t="n">
-        <v>1</v>
-      </c>
-      <c r="O794" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P794" t="inlineStr">
-        <is>
-          <t>Serial number 793 is the only voter listed under house number 4/245-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O794" t="inlineStr"/>
+      <c r="P794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -56476,10 +56716,18 @@
         </is>
       </c>
       <c r="N812" t="n">
-        <v>0</v>
-      </c>
-      <c r="O812" t="inlineStr"/>
-      <c r="P812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O812" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P812" t="inlineStr">
+        <is>
+          <t>Serial number 811 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -56608,10 +56856,18 @@
         </is>
       </c>
       <c r="N814" t="n">
-        <v>0</v>
-      </c>
-      <c r="O814" t="inlineStr"/>
-      <c r="P814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O814" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P814" t="inlineStr">
+        <is>
+          <t>Serial number 813 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -56674,10 +56930,18 @@
         </is>
       </c>
       <c r="N815" t="n">
-        <v>0</v>
-      </c>
-      <c r="O815" t="inlineStr"/>
-      <c r="P815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O815" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P815" t="inlineStr">
+        <is>
+          <t>Serial number 814 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -56744,12 +57008,12 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P816" t="inlineStr">
         <is>
-          <t>Serial number 815 is the only voter listed under house number 4-251 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 815 does not have any valid parent or spouse relationship with other voters in house number 4-251 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -56818,12 +57082,12 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P817" t="inlineStr">
         <is>
-          <t>Serial number 816 is the only voter listed under house number 4/251 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 816 does not have any valid parent or spouse relationship with other voters in house number 4/251 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -56888,10 +57152,18 @@
         </is>
       </c>
       <c r="N818" t="n">
-        <v>0</v>
-      </c>
-      <c r="O818" t="inlineStr"/>
-      <c r="P818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P818" t="inlineStr">
+        <is>
+          <t>Serial number 817 does not have any valid parent or spouse relationship with other voters in house number 4-252 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -57020,10 +57292,18 @@
         </is>
       </c>
       <c r="N820" t="n">
-        <v>0</v>
-      </c>
-      <c r="O820" t="inlineStr"/>
-      <c r="P820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O820" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P820" t="inlineStr">
+        <is>
+          <t>Serial number 819 does not have any valid parent or spouse relationship with other voters in house number 4-252 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -57086,10 +57366,18 @@
         </is>
       </c>
       <c r="N821" t="n">
-        <v>0</v>
-      </c>
-      <c r="O821" t="inlineStr"/>
-      <c r="P821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P821" t="inlineStr">
+        <is>
+          <t>Serial number 820 does not have any valid parent or spouse relationship with other voters in house number 4/252/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -57152,10 +57440,18 @@
         </is>
       </c>
       <c r="N822" t="n">
-        <v>0</v>
-      </c>
-      <c r="O822" t="inlineStr"/>
-      <c r="P822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O822" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P822" t="inlineStr">
+        <is>
+          <t>Serial number 821 does not have any valid parent or spouse relationship with other voters in house number 4/252/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -57490,10 +57786,18 @@
         </is>
       </c>
       <c r="N827" t="n">
-        <v>0</v>
-      </c>
-      <c r="O827" t="inlineStr"/>
-      <c r="P827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O827" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P827" t="inlineStr">
+        <is>
+          <t>Serial number 826 does not have any valid parent or spouse relationship with other voters in house number 4-253 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -57556,18 +57860,10 @@
         </is>
       </c>
       <c r="N828" t="n">
-        <v>1</v>
-      </c>
-      <c r="O828" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P828" t="inlineStr">
-        <is>
-          <t>Serial number 827 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O828" t="inlineStr"/>
+      <c r="P828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -57968,10 +58264,18 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>0</v>
-      </c>
-      <c r="O834" t="inlineStr"/>
-      <c r="P834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P834" t="inlineStr">
+        <is>
+          <t>Serial number 833 does not have any valid parent or spouse relationship with other voters in house number 4/254 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -58388,10 +58692,18 @@
         </is>
       </c>
       <c r="N840" t="n">
-        <v>0</v>
-      </c>
-      <c r="O840" t="inlineStr"/>
-      <c r="P840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O840" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P840" t="inlineStr">
+        <is>
+          <t>Serial number 839 does not have any valid parent or spouse relationship with other voters in house number 4/254 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -59352,18 +59664,10 @@
         </is>
       </c>
       <c r="N854" t="n">
-        <v>1</v>
-      </c>
-      <c r="O854" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P854" t="inlineStr">
-        <is>
-          <t>Serial number 853 is the only voter listed under house number 4/255 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O854" t="inlineStr"/>
+      <c r="P854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -60472,10 +60776,18 @@
         </is>
       </c>
       <c r="N870" t="n">
-        <v>0</v>
-      </c>
-      <c r="O870" t="inlineStr"/>
-      <c r="P870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P870" t="inlineStr">
+        <is>
+          <t>Serial number 869 does not have any valid parent or spouse relationship with other voters in house number 4-261 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -60538,10 +60850,18 @@
         </is>
       </c>
       <c r="N871" t="n">
-        <v>0</v>
-      </c>
-      <c r="O871" t="inlineStr"/>
-      <c r="P871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P871" t="inlineStr">
+        <is>
+          <t>Serial number 870 does not have any valid parent or spouse relationship with other voters in house number 4-261 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -61000,18 +61320,10 @@
         </is>
       </c>
       <c r="N878" t="n">
-        <v>1</v>
-      </c>
-      <c r="O878" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P878" t="inlineStr">
-        <is>
-          <t>Serial number 877 does not have any valid parent or spouse relationship with other voters in house number 4/262 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O878" t="inlineStr"/>
+      <c r="P878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -61074,18 +61386,10 @@
         </is>
       </c>
       <c r="N879" t="n">
-        <v>1</v>
-      </c>
-      <c r="O879" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P879" t="inlineStr">
-        <is>
-          <t>Serial number 878 does not have any valid parent or spouse relationship with other voters in house number 4/262 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O879" t="inlineStr"/>
+      <c r="P879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -61280,18 +61584,10 @@
         </is>
       </c>
       <c r="N882" t="n">
-        <v>1</v>
-      </c>
-      <c r="O882" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P882" t="inlineStr">
-        <is>
-          <t>Serial number 881 is the only voter listed under house number 4/263 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O882" t="inlineStr"/>
+      <c r="P882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="n">
@@ -61552,10 +61848,18 @@
         </is>
       </c>
       <c r="N886" t="n">
-        <v>0</v>
-      </c>
-      <c r="O886" t="inlineStr"/>
-      <c r="P886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O886" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P886" t="inlineStr">
+        <is>
+          <t>Serial number 885 does not have any valid parent or spouse relationship with other voters in house number 4-265 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -61684,10 +61988,18 @@
         </is>
       </c>
       <c r="N888" t="n">
-        <v>0</v>
-      </c>
-      <c r="O888" t="inlineStr"/>
-      <c r="P888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O888" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P888" t="inlineStr">
+        <is>
+          <t>Serial number 887 does not have any valid parent or spouse relationship with other voters in house number 4-265 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -62154,16 +62466,16 @@
         </is>
       </c>
       <c r="N895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P895" t="inlineStr">
         <is>
-          <t>Serial number 894 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 894 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 894 does not have any valid parent or spouse relationship with other voters in house number 4/266 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
         </is>
       </c>
     </row>
@@ -62434,10 +62746,18 @@
         </is>
       </c>
       <c r="N899" t="n">
-        <v>0</v>
-      </c>
-      <c r="O899" t="inlineStr"/>
-      <c r="P899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O899" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P899" t="inlineStr">
+        <is>
+          <t>Serial number 898 does not have any valid parent or spouse relationship with other voters in house number 4-267 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -62764,10 +63084,18 @@
         </is>
       </c>
       <c r="N904" t="n">
-        <v>0</v>
-      </c>
-      <c r="O904" t="inlineStr"/>
-      <c r="P904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O904" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P904" t="inlineStr">
+        <is>
+          <t>Serial number 903 does not have any valid parent or spouse relationship with other voters in house number 4-267 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -63374,10 +63702,18 @@
         </is>
       </c>
       <c r="N913" t="n">
-        <v>0</v>
-      </c>
-      <c r="O913" t="inlineStr"/>
-      <c r="P913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O913" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P913" t="inlineStr">
+        <is>
+          <t>Serial number 912 does not have any valid parent or spouse relationship with other voters in house number 4/271 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -63902,18 +64238,10 @@
         </is>
       </c>
       <c r="N921" t="n">
-        <v>1</v>
-      </c>
-      <c r="O921" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P921" t="inlineStr">
-        <is>
-          <t>Serial number 920 does not have any valid parent or spouse relationship with other voters in house number 4/273 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -64306,10 +64634,18 @@
         </is>
       </c>
       <c r="N927" t="n">
-        <v>0</v>
-      </c>
-      <c r="O927" t="inlineStr"/>
-      <c r="P927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O927" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P927" t="inlineStr">
+        <is>
+          <t>Serial number 926 does not have any valid parent or spouse relationship with other voters in house number 4-278 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
@@ -64768,10 +65104,18 @@
         </is>
       </c>
       <c r="N934" t="n">
-        <v>0</v>
-      </c>
-      <c r="O934" t="inlineStr"/>
-      <c r="P934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O934" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P934" t="inlineStr">
+        <is>
+          <t>Serial number 933 does not have any valid parent or spouse relationship with other voters in house number 4/278 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -65188,18 +65532,10 @@
         </is>
       </c>
       <c r="N940" t="n">
-        <v>1</v>
-      </c>
-      <c r="O940" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P940" t="inlineStr">
-        <is>
-          <t>Serial number 939 is the only voter listed under house number 4-319 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O940" t="inlineStr"/>
+      <c r="P940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -65946,10 +66282,18 @@
         </is>
       </c>
       <c r="N951" t="n">
-        <v>0</v>
-      </c>
-      <c r="O951" t="inlineStr"/>
-      <c r="P951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O951" t="inlineStr">
+        <is>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
+        </is>
+      </c>
+      <c r="P951" t="inlineStr">
+        <is>
+          <t>Multiple voters in house number 4-322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 950.</t>
+        </is>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -66214,12 +66558,12 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>EPIC_ID_MISSING, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P955" t="inlineStr">
         <is>
-          <t>Serial number 954 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 954 is the only voter listed under house number 4/322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398.</t>
+          <t>Serial number 954 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Multiple voters in house number 4/322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 954.</t>
         </is>
       </c>
     </row>
@@ -66284,10 +66628,18 @@
         </is>
       </c>
       <c r="N956" t="n">
-        <v>0</v>
-      </c>
-      <c r="O956" t="inlineStr"/>
-      <c r="P956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O956" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P956" t="inlineStr">
+        <is>
+          <t>Serial number 955 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -66350,10 +66702,18 @@
         </is>
       </c>
       <c r="N957" t="n">
-        <v>0</v>
-      </c>
-      <c r="O957" t="inlineStr"/>
-      <c r="P957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O957" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P957" t="inlineStr">
+        <is>
+          <t>Serial number 956 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -66416,10 +66776,18 @@
         </is>
       </c>
       <c r="N958" t="n">
-        <v>0</v>
-      </c>
-      <c r="O958" t="inlineStr"/>
-      <c r="P958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O958" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P958" t="inlineStr">
+        <is>
+          <t>Serial number 957 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -66952,10 +67320,18 @@
         </is>
       </c>
       <c r="N966" t="n">
-        <v>0</v>
-      </c>
-      <c r="O966" t="inlineStr"/>
-      <c r="P966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O966" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P966" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 965, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
@@ -67018,10 +67394,18 @@
         </is>
       </c>
       <c r="N967" t="n">
-        <v>0</v>
-      </c>
-      <c r="O967" t="inlineStr"/>
-      <c r="P967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O967" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P967" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 966, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
@@ -67084,10 +67468,18 @@
         </is>
       </c>
       <c r="N968" t="n">
-        <v>0</v>
-      </c>
-      <c r="O968" t="inlineStr"/>
-      <c r="P968" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O968" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P968" t="inlineStr">
+        <is>
+          <t>Serial number 967 does not have any valid parent or spouse relationship with other voters in house number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 967, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -67150,10 +67542,18 @@
         </is>
       </c>
       <c r="N969" t="n">
-        <v>0</v>
-      </c>
-      <c r="O969" t="inlineStr"/>
-      <c r="P969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O969" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P969" t="inlineStr">
+        <is>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 968, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -67216,10 +67616,18 @@
         </is>
       </c>
       <c r="N970" t="n">
-        <v>0</v>
-      </c>
-      <c r="O970" t="inlineStr"/>
-      <c r="P970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O970" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P970" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 969, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
@@ -67282,10 +67690,18 @@
         </is>
       </c>
       <c r="N971" t="n">
-        <v>0</v>
-      </c>
-      <c r="O971" t="inlineStr"/>
-      <c r="P971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P971" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 970, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -67348,10 +67764,18 @@
         </is>
       </c>
       <c r="N972" t="n">
-        <v>0</v>
-      </c>
-      <c r="O972" t="inlineStr"/>
-      <c r="P972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O972" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P972" t="inlineStr">
+        <is>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 971, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
@@ -67414,10 +67838,18 @@
         </is>
       </c>
       <c r="N973" t="n">
-        <v>0</v>
-      </c>
-      <c r="O973" t="inlineStr"/>
-      <c r="P973" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P973" t="inlineStr">
+        <is>
+          <t>Serial number 972 does not have any valid parent or spouse relationship with other voters in house number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 972, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
@@ -67480,10 +67912,18 @@
         </is>
       </c>
       <c r="N974" t="n">
-        <v>0</v>
-      </c>
-      <c r="O974" t="inlineStr"/>
-      <c r="P974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O974" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P974" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 973, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
@@ -67546,10 +67986,18 @@
         </is>
       </c>
       <c r="N975" t="n">
-        <v>0</v>
-      </c>
-      <c r="O975" t="inlineStr"/>
-      <c r="P975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O975" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P975" t="inlineStr">
+        <is>
+          <t>House number 4-326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 974, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
@@ -67612,10 +68060,18 @@
         </is>
       </c>
       <c r="N976" t="n">
-        <v>0</v>
-      </c>
-      <c r="O976" t="inlineStr"/>
-      <c r="P976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O976" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P976" t="inlineStr">
+        <is>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 975, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
@@ -67678,10 +68134,18 @@
         </is>
       </c>
       <c r="N977" t="n">
-        <v>0</v>
-      </c>
-      <c r="O977" t="inlineStr"/>
-      <c r="P977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O977" t="inlineStr">
+        <is>
+          <t>BULK_10_PLUS</t>
+        </is>
+      </c>
+      <c r="P977" t="inlineStr">
+        <is>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 976, which exceeds the household size threshold.</t>
+        </is>
+      </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
@@ -67876,10 +68340,18 @@
         </is>
       </c>
       <c r="N980" t="n">
-        <v>0</v>
-      </c>
-      <c r="O980" t="inlineStr"/>
-      <c r="P980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O980" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P980" t="inlineStr">
+        <is>
+          <t>Serial number 979 does not have any valid parent or spouse relationship with other voters in house number 4-328 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -67942,10 +68414,18 @@
         </is>
       </c>
       <c r="N981" t="n">
-        <v>0</v>
-      </c>
-      <c r="O981" t="inlineStr"/>
-      <c r="P981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P981" t="inlineStr">
+        <is>
+          <t>Serial number 980 does not have any valid parent or spouse relationship with other voters in house number 4-328 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -68592,16 +69072,16 @@
         </is>
       </c>
       <c r="N990" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P990" t="inlineStr">
         <is>
-          <t>Serial number 989 was flagged due to rule: INVALID_EPIC_ID. | Serial number 989 has invalid age value 0.</t>
+          <t>Serial number 989 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -70436,10 +70916,18 @@
         </is>
       </c>
       <c r="N1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1016" t="inlineStr"/>
-      <c r="P1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1016" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1016" t="inlineStr">
+        <is>
+          <t>Serial number 1015 does not have any valid parent or spouse relationship with other voters in house number 321 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+        </is>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
@@ -73520,16 +74008,16 @@
         </is>
       </c>
       <c r="N1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, STREET_NAME_UNAVAILABLE</t>
+          <t>STREET_NAME_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P1058" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1057, therefore household-level verification could not be performed. | Serial number 1057 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Street name is missing for serial number 1057, therefore household-level verification could not be performed.</t>
         </is>
       </c>
     </row>

--- a/out_booth_398/suspect_summary.xlsx
+++ b/out_booth_398/suspect_summary.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Serial number 4 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 4 has invalid age value 0. | Serial number 4 does not have a valid house number recorded.</t>
+          <t>Serial number 4 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 4 has invalid age value 0. | Serial number 4 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Serial number 7 has invalid age value 0. | Serial number 7 does not have a valid house number recorded.</t>
+          <t>Serial number 7 has invalid age value 0. | Serial number 7 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Serial number 14 has invalid age value 0. | Serial number 14 does not have a valid house number recorded.</t>
+          <t>Serial number 14 has invalid age value 0. | Serial number 14 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Serial number 15 has invalid age value 0. | Serial number 15 does not have a valid house number recorded.</t>
+          <t>Serial number 15 has invalid age value 0. | Serial number 15 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -2090,18 +2090,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Serial number 22 does not have any valid parent or spouse relationship with other voters in house number 1/2004 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2164,18 +2156,10 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Serial number 23 does not have any valid parent or spouse relationship with other voters in house number 1/2004 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2667,7 +2651,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Serial number 30 has invalid age value 0. | Serial number 30 does not have a valid house number recorded.</t>
+          <t>Serial number 30 has invalid age value 0. | Serial number 30 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4017,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Serial number 49 has invalid age value 0. | Serial number 49 does not have a valid house number recorded.</t>
+          <t>Serial number 49 has invalid age value 0. | Serial number 49 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4453,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Serial number 55 has invalid age value 0. | Serial number 55 does not have a valid house number recorded.</t>
+          <t>Serial number 55 has invalid age value 0. | Serial number 55 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -6015,7 +5999,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Serial number 76 has invalid age value 0. | Serial number 76 does not have a valid house number recorded.</t>
+          <t>Serial number 76 has invalid age value 0. | Serial number 76 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -6385,7 +6369,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Serial number 81 shares the same EPIC ID (WRK0465435) with serial number(s) [1066] in part(s) ['398'] inside assembly ['115']. | Serial number 81 has invalid age value 0. | Serial number 81 does not have a valid house number recorded.</t>
+          <t>Serial number 81 shares the same EPIC ID (WRK0465435) with serial number(s) [1066] in part(s) ['398'] inside assembly ['115']. | Serial number 81 has invalid age value 0. | Serial number 81 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6665,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Serial number 85 has invalid age value 0. | Serial number 85 does not have a valid house number recorded.</t>
+          <t>Serial number 85 has invalid age value 0. | Serial number 85 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -7026,18 +7010,10 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Serial number 90 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7166,18 +7142,10 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Serial number 92 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7372,18 +7340,10 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Serial number 95 does not have any valid parent or spouse relationship with other voters in house number 4-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7512,18 +7472,10 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Serial number 97 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7586,18 +7538,10 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Serial number 98 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8064,18 +8008,10 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>Serial number 105 does not have any valid parent or spouse relationship with other voters in house number 4-3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9128,18 +9064,10 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>Serial number 121 does not have any valid parent or spouse relationship with other voters in house number 4/6 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10940,18 +10868,10 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>Serial number 147 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11080,18 +11000,10 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>1</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>Serial number 149 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11352,18 +11264,10 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>1</v>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11426,18 +11330,10 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1</v>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number 4/16 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11566,18 +11462,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>1</v>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 4-17 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11640,18 +11528,10 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1</v>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>Serial number 157 does not have any valid parent or spouse relationship with other voters in house number 4-17 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13198,18 +13078,10 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>1</v>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>Serial number 180 does not have any valid parent or spouse relationship with other voters in house number 4-28 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -14632,16 +14504,16 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 201. | Serial number 201 does not have any valid parent or spouse relationship with other voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -14715,7 +14587,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 202.</t>
+          <t>Multiple voters in house number 4-35 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -15332,18 +15204,10 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>1</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>Serial number 211 does not have any valid parent or spouse relationship with other voters in house number 4/39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -15406,18 +15270,10 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>1</v>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>Serial number 212 does not have any valid parent or spouse relationship with other voters in house number 4/39 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -15612,18 +15468,10 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>1</v>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>Serial number 215 does not have any valid parent or spouse relationship with other voters in house number 4-40 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -16024,18 +15872,10 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>1</v>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>Serial number 221 does not have any valid parent or spouse relationship with other voters in house number 4/41 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -18076,10 +17916,18 @@
         </is>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Serial number 251 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -18208,10 +18056,18 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Serial number 253 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -18415,7 +18271,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-54 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 256.</t>
+          <t>Multiple voters in house number 4-54 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -18489,7 +18345,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-54 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 257.</t>
+          <t>Multiple voters in house number 4-54 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -18760,18 +18616,10 @@
         </is>
       </c>
       <c r="N262" t="n">
-        <v>1</v>
-      </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P262" t="inlineStr">
-        <is>
-          <t>Serial number 261 does not have any valid parent or spouse relationship with other voters in house number 4-56 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -18834,18 +18682,10 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>1</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>Serial number 262 does not have any valid parent or spouse relationship with other voters in house number 4-56 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -19378,18 +19218,10 @@
         </is>
       </c>
       <c r="N271" t="n">
-        <v>1</v>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>Serial number 270 does not have any valid parent or spouse relationship with other voters in house number 4-60 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -20642,12 +20474,12 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE</t>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Serial number 288 does not have any valid parent or spouse relationship with other voters in house number 4-73 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+          <t>Serial number 288 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -20848,12 +20680,12 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE</t>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>Serial number 291 does not have any valid parent or spouse relationship with other voters in house number 4-73 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+          <t>Serial number 291 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -21710,18 +21542,10 @@
         </is>
       </c>
       <c r="N305" t="n">
-        <v>1</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>Serial number 304 does not have any valid parent or spouse relationship with other voters in house number 4/76 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -21990,18 +21814,10 @@
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1</v>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>Serial number 308 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -22064,18 +21880,10 @@
         </is>
       </c>
       <c r="N310" t="n">
-        <v>1</v>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>Serial number 309 does not have any valid parent or spouse relationship with other voters in house number 4-77 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -23308,18 +23116,10 @@
         </is>
       </c>
       <c r="N328" t="n">
-        <v>1</v>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>Serial number 327 does not have any valid parent or spouse relationship with other voters in house number 4-83 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -23654,18 +23454,10 @@
         </is>
       </c>
       <c r="N333" t="n">
-        <v>1</v>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>Serial number 332 does not have any valid parent or spouse relationship with other voters in house number 4/84 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23860,18 +23652,10 @@
         </is>
       </c>
       <c r="N336" t="n">
-        <v>1</v>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>Serial number 335 does not have any valid parent or spouse relationship with other voters in house number 4-85 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O336" t="inlineStr"/>
+      <c r="P336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -24890,18 +24674,10 @@
         </is>
       </c>
       <c r="N351" t="n">
-        <v>1</v>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P351" t="inlineStr">
-        <is>
-          <t>Serial number 350 does not have any valid parent or spouse relationship with other voters in house number 4-90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -24964,18 +24740,10 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>1</v>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P352" t="inlineStr">
-        <is>
-          <t>Serial number 351 does not have any valid parent or spouse relationship with other voters in house number 4/90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -25038,18 +24806,10 @@
         </is>
       </c>
       <c r="N353" t="n">
-        <v>1</v>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P353" t="inlineStr">
-        <is>
-          <t>Serial number 352 does not have any valid parent or spouse relationship with other voters in house number 4-90 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O353" t="inlineStr"/>
+      <c r="P353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -25788,18 +25548,10 @@
         </is>
       </c>
       <c r="N364" t="n">
-        <v>1</v>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P364" t="inlineStr">
-        <is>
-          <t>Serial number 363 does not have any valid parent or spouse relationship with other voters in house number 4-92 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O364" t="inlineStr"/>
+      <c r="P364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -25862,18 +25614,10 @@
         </is>
       </c>
       <c r="N365" t="n">
-        <v>1</v>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P365" t="inlineStr">
-        <is>
-          <t>Serial number 364 does not have any valid parent or spouse relationship with other voters in house number 4-92 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -28376,18 +28120,10 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>1</v>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P402" t="inlineStr">
-        <is>
-          <t>Serial number 401 does not have any valid parent or spouse relationship with other voters in house number 4-106 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -28516,18 +28252,10 @@
         </is>
       </c>
       <c r="N404" t="n">
-        <v>1</v>
-      </c>
-      <c r="O404" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P404" t="inlineStr">
-        <is>
-          <t>Serial number 403 does not have any valid parent or spouse relationship with other voters in house number 4-106 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -29018,18 +28746,10 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>1</v>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P411" t="inlineStr">
-        <is>
-          <t>Serial number 410 does not have any valid parent or spouse relationship with other voters in house number 4-109 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -29224,18 +28944,10 @@
         </is>
       </c>
       <c r="N414" t="n">
-        <v>1</v>
-      </c>
-      <c r="O414" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P414" t="inlineStr">
-        <is>
-          <t>Serial number 413 does not have any valid parent or spouse relationship with other voters in house number 4-110 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -29644,18 +29356,10 @@
         </is>
       </c>
       <c r="N420" t="n">
-        <v>1</v>
-      </c>
-      <c r="O420" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P420" t="inlineStr">
-        <is>
-          <t>Serial number 419 does not have any valid parent or spouse relationship with other voters in house number 4-112 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -29784,18 +29488,10 @@
         </is>
       </c>
       <c r="N422" t="n">
-        <v>1</v>
-      </c>
-      <c r="O422" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P422" t="inlineStr">
-        <is>
-          <t>Serial number 421 does not have any valid parent or spouse relationship with other voters in house number 4-112 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -30426,18 +30122,10 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>1</v>
-      </c>
-      <c r="O431" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P431" t="inlineStr">
-        <is>
-          <t>Serial number 430 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -30698,18 +30386,10 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>1</v>
-      </c>
-      <c r="O435" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P435" t="inlineStr">
-        <is>
-          <t>Serial number 434 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -30772,18 +30452,10 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>1</v>
-      </c>
-      <c r="O436" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P436" t="inlineStr">
-        <is>
-          <t>Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 4-118 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -31192,18 +30864,10 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>1</v>
-      </c>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P442" t="inlineStr">
-        <is>
-          <t>Serial number 441 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -31530,18 +31194,10 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>1</v>
-      </c>
-      <c r="O447" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P447" t="inlineStr">
-        <is>
-          <t>Serial number 446 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -31934,18 +31590,10 @@
         </is>
       </c>
       <c r="N453" t="n">
-        <v>1</v>
-      </c>
-      <c r="O453" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P453" t="inlineStr">
-        <is>
-          <t>Serial number 452 does not have any valid parent or spouse relationship with other voters in house number 4-122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O453" t="inlineStr"/>
+      <c r="P453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -32074,18 +31722,10 @@
         </is>
       </c>
       <c r="N455" t="n">
-        <v>1</v>
-      </c>
-      <c r="O455" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P455" t="inlineStr">
-        <is>
-          <t>Serial number 454 does not have any valid parent or spouse relationship with other voters in house number 4-122 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -32824,18 +32464,10 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>1</v>
-      </c>
-      <c r="O466" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P466" t="inlineStr">
-        <is>
-          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 4-124 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -32898,18 +32530,10 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>1</v>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P467" t="inlineStr">
-        <is>
-          <t>Serial number 466 does not have any valid parent or spouse relationship with other voters in house number 4/124 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -33392,16 +33016,16 @@
         </is>
       </c>
       <c r="N474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>Serial number 473 does not have any valid parent or spouse relationship with other voters in house number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 473, which exceeds the household size threshold.</t>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 473, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -33762,16 +33386,16 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 478, which exceeds the household size threshold.</t>
+          <t>House number 4-130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 478, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -34280,16 +33904,16 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P486" t="inlineStr">
         <is>
-          <t>Serial number 485 does not have any valid parent or spouse relationship with other voters in house number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 485, which exceeds the household size threshold.</t>
+          <t>House number 4/130 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 7 registered voters including serial number 485, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -35458,18 +35082,10 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>1</v>
-      </c>
-      <c r="O503" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P503" t="inlineStr">
-        <is>
-          <t>Serial number 502 does not have any valid parent or spouse relationship with other voters in house number 4-133 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O503" t="inlineStr"/>
+      <c r="P503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -35532,18 +35148,10 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>1</v>
-      </c>
-      <c r="O504" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P504" t="inlineStr">
-        <is>
-          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 4-133 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -35606,18 +35214,10 @@
         </is>
       </c>
       <c r="N505" t="n">
-        <v>1</v>
-      </c>
-      <c r="O505" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P505" t="inlineStr">
-        <is>
-          <t>Serial number 504 does not have any valid parent or spouse relationship with other voters in house number 4-135 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -35887,7 +35487,7 @@
       </c>
       <c r="P509" t="inlineStr">
         <is>
-          <t>Serial number 508 has invalid age value 0. | Serial number 508 does not have a valid house number recorded.</t>
+          <t>Serial number 508 has invalid age value 0. | Serial number 508 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -37172,18 +36772,10 @@
         </is>
       </c>
       <c r="N528" t="n">
-        <v>1</v>
-      </c>
-      <c r="O528" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P528" t="inlineStr">
-        <is>
-          <t>Serial number 527 does not have any valid parent or spouse relationship with other voters in house number 4-142 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -37246,18 +36838,10 @@
         </is>
       </c>
       <c r="N529" t="n">
-        <v>1</v>
-      </c>
-      <c r="O529" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P529" t="inlineStr">
-        <is>
-          <t>Serial number 528 does not have any valid parent or spouse relationship with other voters in house number 4-142 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -38408,18 +37992,10 @@
         </is>
       </c>
       <c r="N546" t="n">
-        <v>1</v>
-      </c>
-      <c r="O546" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P546" t="inlineStr">
-        <is>
-          <t>Serial number 545 does not have any valid parent or spouse relationship with other voters in house number 4-147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -38482,18 +38058,10 @@
         </is>
       </c>
       <c r="N547" t="n">
-        <v>1</v>
-      </c>
-      <c r="O547" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P547" t="inlineStr">
-        <is>
-          <t>Serial number 546 does not have any valid parent or spouse relationship with other voters in house number 4/147 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -38622,18 +38190,10 @@
         </is>
       </c>
       <c r="N549" t="n">
-        <v>1</v>
-      </c>
-      <c r="O549" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P549" t="inlineStr">
-        <is>
-          <t>Serial number 548 does not have any valid parent or spouse relationship with other voters in house number 4/148-1 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -38894,18 +38454,10 @@
         </is>
       </c>
       <c r="N553" t="n">
-        <v>1</v>
-      </c>
-      <c r="O553" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P553" t="inlineStr">
-        <is>
-          <t>Serial number 552 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -39396,18 +38948,10 @@
         </is>
       </c>
       <c r="N560" t="n">
-        <v>1</v>
-      </c>
-      <c r="O560" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P560" t="inlineStr">
-        <is>
-          <t>Serial number 559 does not have any valid parent or spouse relationship with other voters in house number 4-153 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -39692,18 +39236,10 @@
         </is>
       </c>
       <c r="N564" t="n">
-        <v>1</v>
-      </c>
-      <c r="O564" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P564" t="inlineStr">
-        <is>
-          <t>Serial number 563 does not have any valid parent or spouse relationship with other voters in house number 4-156 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -39766,16 +39302,16 @@
         </is>
       </c>
       <c r="N565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
+          <t>UNDER_18</t>
         </is>
       </c>
       <c r="P565" t="inlineStr">
         <is>
-          <t>Serial number 564 does not have any valid parent or spouse relationship with other voters in house number 4-156 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 564 has age 2, below voting age.</t>
+          <t>Serial number 564 has age 2, below voting age.</t>
         </is>
       </c>
     </row>
@@ -40046,10 +39582,18 @@
         </is>
       </c>
       <c r="N569" t="n">
-        <v>0</v>
-      </c>
-      <c r="O569" t="inlineStr"/>
-      <c r="P569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>Serial number 568 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -40178,10 +39722,18 @@
         </is>
       </c>
       <c r="N571" t="n">
-        <v>0</v>
-      </c>
-      <c r="O571" t="inlineStr"/>
-      <c r="P571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P571" t="inlineStr">
+        <is>
+          <t>Serial number 570 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -40244,18 +39796,10 @@
         </is>
       </c>
       <c r="N572" t="n">
-        <v>1</v>
-      </c>
-      <c r="O572" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P572" t="inlineStr">
-        <is>
-          <t>Serial number 571 does not have any valid parent or spouse relationship with other voters in house number 4/159 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -40450,18 +39994,10 @@
         </is>
       </c>
       <c r="N575" t="n">
-        <v>1</v>
-      </c>
-      <c r="O575" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P575" t="inlineStr">
-        <is>
-          <t>Serial number 574 does not have any valid parent or spouse relationship with other voters in house number 4/159 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -41184,18 +40720,10 @@
         </is>
       </c>
       <c r="N586" t="n">
-        <v>1</v>
-      </c>
-      <c r="O586" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P586" t="inlineStr">
-        <is>
-          <t>Serial number 585 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O586" t="inlineStr"/>
+      <c r="P586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -41958,10 +41486,18 @@
         </is>
       </c>
       <c r="N597" t="n">
-        <v>0</v>
-      </c>
-      <c r="O597" t="inlineStr"/>
-      <c r="P597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>Serial number 596 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -42024,16 +41560,16 @@
         </is>
       </c>
       <c r="N598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>EPIC_ID_MISSING, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P598" t="inlineStr">
         <is>
-          <t>Serial number 597 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 597 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 597 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -42840,18 +42376,10 @@
         </is>
       </c>
       <c r="N610" t="n">
-        <v>1</v>
-      </c>
-      <c r="O610" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P610" t="inlineStr">
-        <is>
-          <t>Serial number 609 does not have any valid parent or spouse relationship with other voters in house number 4-176 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O610" t="inlineStr"/>
+      <c r="P610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -43310,18 +42838,10 @@
         </is>
       </c>
       <c r="N617" t="n">
-        <v>1</v>
-      </c>
-      <c r="O617" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P617" t="inlineStr">
-        <is>
-          <t>Serial number 616 does not have any valid parent or spouse relationship with other voters in house number 4-178 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O617" t="inlineStr"/>
+      <c r="P617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -43878,18 +43398,10 @@
         </is>
       </c>
       <c r="N625" t="n">
-        <v>1</v>
-      </c>
-      <c r="O625" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P625" t="inlineStr">
-        <is>
-          <t>Serial number 624 does not have any valid parent or spouse relationship with other voters in house number 4/180 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -44018,16 +43530,16 @@
         </is>
       </c>
       <c r="N627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P627" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 626. | Serial number 626 does not have any valid parent or spouse relationship with other voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -44101,7 +43613,7 @@
       </c>
       <c r="P628" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 627.</t>
+          <t>Multiple voters in house number 4-181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -44175,7 +43687,7 @@
       </c>
       <c r="P629" t="inlineStr">
         <is>
-          <t>Serial number 628 has identical personal and family details as serial number(s) [629] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 628.</t>
+          <t>Serial number 628 has identical personal and family details as serial number(s) [629] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -44249,7 +43761,7 @@
       </c>
       <c r="P630" t="inlineStr">
         <is>
-          <t>Serial number 629 has identical personal and family details as serial number(s) [628] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 629.</t>
+          <t>Serial number 629 has identical personal and family details as serial number(s) [628] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/181 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -44314,18 +43826,10 @@
         </is>
       </c>
       <c r="N631" t="n">
-        <v>1</v>
-      </c>
-      <c r="O631" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P631" t="inlineStr">
-        <is>
-          <t>Serial number 630 does not have any valid parent or spouse relationship with other voters in house number 4-185 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -44388,18 +43892,10 @@
         </is>
       </c>
       <c r="N632" t="n">
-        <v>1</v>
-      </c>
-      <c r="O632" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P632" t="inlineStr">
-        <is>
-          <t>Serial number 631 does not have any valid parent or spouse relationship with other voters in house number 4-185 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -44998,16 +44494,16 @@
         </is>
       </c>
       <c r="N641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
         <is>
-          <t>Serial number 640 does not have any valid parent or spouse relationship with other voters in house number 4/188 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | Serial number 640 has invalid age value 0.</t>
+          <t>Serial number 640 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -45213,7 +44709,7 @@
       </c>
       <c r="P644" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-191 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 643.</t>
+          <t>Multiple voters in house number 4-191 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -45287,7 +44783,7 @@
       </c>
       <c r="P645" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-191 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 644.</t>
+          <t>Multiple voters in house number 4-191 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -45427,7 +44923,7 @@
       </c>
       <c r="P647" t="inlineStr">
         <is>
-          <t>Serial number 646 does not have a valid house number recorded.</t>
+          <t>Serial number 646 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -45501,7 +44997,7 @@
       </c>
       <c r="P648" t="inlineStr">
         <is>
-          <t>Serial number 647 does not have a valid house number recorded.</t>
+          <t>Serial number 647 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -45904,18 +45400,10 @@
         </is>
       </c>
       <c r="N654" t="n">
-        <v>1</v>
-      </c>
-      <c r="O654" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P654" t="inlineStr">
-        <is>
-          <t>Serial number 653 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -47700,18 +47188,10 @@
         </is>
       </c>
       <c r="N680" t="n">
-        <v>1</v>
-      </c>
-      <c r="O680" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P680" t="inlineStr">
-        <is>
-          <t>Serial number 679 does not have any valid parent or spouse relationship with other voters in house number 4-202 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O680" t="inlineStr"/>
+      <c r="P680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -47774,18 +47254,10 @@
         </is>
       </c>
       <c r="N681" t="n">
-        <v>1</v>
-      </c>
-      <c r="O681" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P681" t="inlineStr">
-        <is>
-          <t>Serial number 680 does not have any valid parent or spouse relationship with other voters in house number 4/202 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O681" t="inlineStr"/>
+      <c r="P681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -48796,18 +48268,10 @@
         </is>
       </c>
       <c r="N696" t="n">
-        <v>1</v>
-      </c>
-      <c r="O696" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P696" t="inlineStr">
-        <is>
-          <t>Serial number 695 does not have any valid parent or spouse relationship with other voters in house number 4-208 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -49068,18 +48532,10 @@
         </is>
       </c>
       <c r="N700" t="n">
-        <v>1</v>
-      </c>
-      <c r="O700" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P700" t="inlineStr">
-        <is>
-          <t>Serial number 699 does not have any valid parent or spouse relationship with other voters in house number 4-208 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O700" t="inlineStr"/>
+      <c r="P700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -51615,7 +51071,7 @@
       </c>
       <c r="P737" t="inlineStr">
         <is>
-          <t>Serial number 736 does not have a valid house number recorded.</t>
+          <t>Serial number 736 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -51763,7 +51219,7 @@
       </c>
       <c r="P739" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 738.</t>
+          <t>Multiple voters in house number 4-226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -51903,7 +51359,7 @@
       </c>
       <c r="P741" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4/226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 740.</t>
+          <t>Multiple voters in house number 4/226 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -52034,18 +51490,10 @@
         </is>
       </c>
       <c r="N743" t="n">
-        <v>1</v>
-      </c>
-      <c r="O743" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P743" t="inlineStr">
-        <is>
-          <t>Serial number 742 does not have any valid parent or spouse relationship with other voters in house number 4-227 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O743" t="inlineStr"/>
+      <c r="P743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -52306,18 +51754,10 @@
         </is>
       </c>
       <c r="N747" t="n">
-        <v>1</v>
-      </c>
-      <c r="O747" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P747" t="inlineStr">
-        <is>
-          <t>Serial number 746 does not have any valid parent or spouse relationship with other voters in house number 4/227 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -52446,10 +51886,18 @@
         </is>
       </c>
       <c r="N749" t="n">
-        <v>0</v>
-      </c>
-      <c r="O749" t="inlineStr"/>
-      <c r="P749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P749" t="inlineStr">
+        <is>
+          <t>Serial number 748 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -52512,10 +51960,18 @@
         </is>
       </c>
       <c r="N750" t="n">
-        <v>0</v>
-      </c>
-      <c r="O750" t="inlineStr"/>
-      <c r="P750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O750" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P750" t="inlineStr">
+        <is>
+          <t>Serial number 749 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -52974,18 +52430,10 @@
         </is>
       </c>
       <c r="N757" t="n">
-        <v>1</v>
-      </c>
-      <c r="O757" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P757" t="inlineStr">
-        <is>
-          <t>Serial number 756 does not have any valid parent or spouse relationship with other voters in house number 4/231 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O757" t="inlineStr"/>
+      <c r="P757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -53667,7 +53115,7 @@
       </c>
       <c r="P767" t="inlineStr">
         <is>
-          <t>Serial number 766 does not have a valid house number recorded.</t>
+          <t>Serial number 766 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -53864,18 +53312,10 @@
         </is>
       </c>
       <c r="N770" t="n">
-        <v>1</v>
-      </c>
-      <c r="O770" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P770" t="inlineStr">
-        <is>
-          <t>Serial number 769 does not have any valid parent or spouse relationship with other voters in house number 4/238 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O770" t="inlineStr"/>
+      <c r="P770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -54070,18 +53510,10 @@
         </is>
       </c>
       <c r="N773" t="n">
-        <v>1</v>
-      </c>
-      <c r="O773" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P773" t="inlineStr">
-        <is>
-          <t>Serial number 772 does not have any valid parent or spouse relationship with other voters in house number 4/238 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O773" t="inlineStr"/>
+      <c r="P773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -54820,18 +54252,10 @@
         </is>
       </c>
       <c r="N784" t="n">
-        <v>1</v>
-      </c>
-      <c r="O784" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P784" t="inlineStr">
-        <is>
-          <t>Serial number 783 does not have any valid parent or spouse relationship with other voters in house number 4-243 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O784" t="inlineStr"/>
+      <c r="P784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -55711,7 +55135,7 @@
       </c>
       <c r="P797" t="inlineStr">
         <is>
-          <t>Serial number 796 has invalid age value 0. | Serial number 796 does not have a valid house number recorded.</t>
+          <t>Serial number 796 has invalid age value 0. | Serial number 796 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -55851,7 +55275,7 @@
       </c>
       <c r="P799" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-246 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 798.</t>
+          <t>Multiple voters in house number 4-246 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -56716,18 +56140,10 @@
         </is>
       </c>
       <c r="N812" t="n">
-        <v>1</v>
-      </c>
-      <c r="O812" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P812" t="inlineStr">
-        <is>
-          <t>Serial number 811 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -56856,18 +56272,10 @@
         </is>
       </c>
       <c r="N814" t="n">
-        <v>1</v>
-      </c>
-      <c r="O814" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P814" t="inlineStr">
-        <is>
-          <t>Serial number 813 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -56930,18 +56338,10 @@
         </is>
       </c>
       <c r="N815" t="n">
-        <v>1</v>
-      </c>
-      <c r="O815" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P815" t="inlineStr">
-        <is>
-          <t>Serial number 814 does not have any valid parent or spouse relationship with other voters in house number 4-250 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O815" t="inlineStr"/>
+      <c r="P815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -57152,18 +56552,10 @@
         </is>
       </c>
       <c r="N818" t="n">
-        <v>1</v>
-      </c>
-      <c r="O818" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P818" t="inlineStr">
-        <is>
-          <t>Serial number 817 does not have any valid parent or spouse relationship with other voters in house number 4-252 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O818" t="inlineStr"/>
+      <c r="P818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -57292,18 +56684,10 @@
         </is>
       </c>
       <c r="N820" t="n">
-        <v>1</v>
-      </c>
-      <c r="O820" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P820" t="inlineStr">
-        <is>
-          <t>Serial number 819 does not have any valid parent or spouse relationship with other voters in house number 4-252 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O820" t="inlineStr"/>
+      <c r="P820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -57366,18 +56750,10 @@
         </is>
       </c>
       <c r="N821" t="n">
-        <v>1</v>
-      </c>
-      <c r="O821" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P821" t="inlineStr">
-        <is>
-          <t>Serial number 820 does not have any valid parent or spouse relationship with other voters in house number 4/252/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O821" t="inlineStr"/>
+      <c r="P821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -57440,18 +56816,10 @@
         </is>
       </c>
       <c r="N822" t="n">
-        <v>1</v>
-      </c>
-      <c r="O822" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P822" t="inlineStr">
-        <is>
-          <t>Serial number 821 does not have any valid parent or spouse relationship with other voters in house number 4/252/2 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O822" t="inlineStr"/>
+      <c r="P822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -57786,18 +57154,10 @@
         </is>
       </c>
       <c r="N827" t="n">
-        <v>1</v>
-      </c>
-      <c r="O827" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P827" t="inlineStr">
-        <is>
-          <t>Serial number 826 does not have any valid parent or spouse relationship with other voters in house number 4-253 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O827" t="inlineStr"/>
+      <c r="P827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -58190,18 +57550,10 @@
         </is>
       </c>
       <c r="N833" t="n">
-        <v>1</v>
-      </c>
-      <c r="O833" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P833" t="inlineStr">
-        <is>
-          <t>Serial number 832 does not have any valid parent or spouse relationship with other voters in house number 4-254 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O833" t="inlineStr"/>
+      <c r="P833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="n">
@@ -58264,18 +57616,10 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>1</v>
-      </c>
-      <c r="O834" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P834" t="inlineStr">
-        <is>
-          <t>Serial number 833 does not have any valid parent or spouse relationship with other voters in house number 4/254 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -58692,18 +58036,10 @@
         </is>
       </c>
       <c r="N840" t="n">
-        <v>1</v>
-      </c>
-      <c r="O840" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P840" t="inlineStr">
-        <is>
-          <t>Serial number 839 does not have any valid parent or spouse relationship with other voters in house number 4/254 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -60027,7 +59363,7 @@
       </c>
       <c r="P859" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-256 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 858.</t>
+          <t>Multiple voters in house number 4-256 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -60167,7 +59503,7 @@
       </c>
       <c r="P861" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-256 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 860.</t>
+          <t>Multiple voters in house number 4-256 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -60776,18 +60112,10 @@
         </is>
       </c>
       <c r="N870" t="n">
-        <v>1</v>
-      </c>
-      <c r="O870" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P870" t="inlineStr">
-        <is>
-          <t>Serial number 869 does not have any valid parent or spouse relationship with other voters in house number 4-261 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -60850,18 +60178,10 @@
         </is>
       </c>
       <c r="N871" t="n">
-        <v>1</v>
-      </c>
-      <c r="O871" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P871" t="inlineStr">
-        <is>
-          <t>Serial number 870 does not have any valid parent or spouse relationship with other voters in house number 4-261 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O871" t="inlineStr"/>
+      <c r="P871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -61848,18 +61168,10 @@
         </is>
       </c>
       <c r="N886" t="n">
-        <v>1</v>
-      </c>
-      <c r="O886" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P886" t="inlineStr">
-        <is>
-          <t>Serial number 885 does not have any valid parent or spouse relationship with other voters in house number 4-265 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O886" t="inlineStr"/>
+      <c r="P886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -61988,18 +61300,10 @@
         </is>
       </c>
       <c r="N888" t="n">
-        <v>1</v>
-      </c>
-      <c r="O888" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P888" t="inlineStr">
-        <is>
-          <t>Serial number 887 does not have any valid parent or spouse relationship with other voters in house number 4-265 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O888" t="inlineStr"/>
+      <c r="P888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -62203,7 +61507,7 @@
       </c>
       <c r="P891" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-246 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 890.</t>
+          <t>Multiple voters in house number 4-246 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -62466,16 +61770,16 @@
         </is>
       </c>
       <c r="N895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
+          <t>EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P895" t="inlineStr">
         <is>
-          <t>Serial number 894 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 894 does not have any valid parent or spouse relationship with other voters in house number 4/266 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
+          <t>Serial number 894 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
         </is>
       </c>
     </row>
@@ -62746,18 +62050,10 @@
         </is>
       </c>
       <c r="N899" t="n">
-        <v>1</v>
-      </c>
-      <c r="O899" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P899" t="inlineStr">
-        <is>
-          <t>Serial number 898 does not have any valid parent or spouse relationship with other voters in house number 4-267 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O899" t="inlineStr"/>
+      <c r="P899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -63084,18 +62380,10 @@
         </is>
       </c>
       <c r="N904" t="n">
-        <v>1</v>
-      </c>
-      <c r="O904" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P904" t="inlineStr">
-        <is>
-          <t>Serial number 903 does not have any valid parent or spouse relationship with other voters in house number 4-267 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O904" t="inlineStr"/>
+      <c r="P904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -63702,18 +62990,10 @@
         </is>
       </c>
       <c r="N913" t="n">
-        <v>1</v>
-      </c>
-      <c r="O913" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P913" t="inlineStr">
-        <is>
-          <t>Serial number 912 does not have any valid parent or spouse relationship with other voters in house number 4/271 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -64634,18 +63914,10 @@
         </is>
       </c>
       <c r="N927" t="n">
-        <v>1</v>
-      </c>
-      <c r="O927" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P927" t="inlineStr">
-        <is>
-          <t>Serial number 926 does not have any valid parent or spouse relationship with other voters in house number 4-278 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="n">
@@ -65104,18 +64376,10 @@
         </is>
       </c>
       <c r="N934" t="n">
-        <v>1</v>
-      </c>
-      <c r="O934" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P934" t="inlineStr">
-        <is>
-          <t>Serial number 933 does not have any valid parent or spouse relationship with other voters in house number 4/278 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O934" t="inlineStr"/>
+      <c r="P934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -65607,7 +64871,7 @@
       </c>
       <c r="P941" t="inlineStr">
         <is>
-          <t>Serial number 940 has identical personal and family details as serial number(s) [943] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/319 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 940.</t>
+          <t>Serial number 940 has identical personal and family details as serial number(s) [943] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/319 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -65813,7 +65077,7 @@
       </c>
       <c r="P944" t="inlineStr">
         <is>
-          <t>Serial number 943 has identical personal and family details as serial number(s) [940] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/319 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 943.</t>
+          <t>Serial number 943 has identical personal and family details as serial number(s) [940] in part(s) ['398'] inside assembly ['115'], but appears under a different EPIC ID. | Multiple voters in house number 4/319 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -66291,7 +65555,7 @@
       </c>
       <c r="P951" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 4-322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 950.</t>
+          <t>Multiple voters in house number 4-322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -66563,7 +65827,7 @@
       </c>
       <c r="P955" t="inlineStr">
         <is>
-          <t>Serial number 954 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Multiple voters in house number 4/322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name as serial number 954.</t>
+          <t>Serial number 954 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Multiple voters in house number 4/322 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' share the same name.</t>
         </is>
       </c>
     </row>
@@ -66628,18 +65892,10 @@
         </is>
       </c>
       <c r="N956" t="n">
-        <v>1</v>
-      </c>
-      <c r="O956" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P956" t="inlineStr">
-        <is>
-          <t>Serial number 955 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O956" t="inlineStr"/>
+      <c r="P956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -66702,18 +65958,10 @@
         </is>
       </c>
       <c r="N957" t="n">
-        <v>1</v>
-      </c>
-      <c r="O957" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P957" t="inlineStr">
-        <is>
-          <t>Serial number 956 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O957" t="inlineStr"/>
+      <c r="P957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -66776,18 +66024,10 @@
         </is>
       </c>
       <c r="N958" t="n">
-        <v>1</v>
-      </c>
-      <c r="O958" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P958" t="inlineStr">
-        <is>
-          <t>Serial number 957 does not have any valid parent or spouse relationship with other voters in house number 4/322/3 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O958" t="inlineStr"/>
+      <c r="P958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -67468,16 +66708,16 @@
         </is>
       </c>
       <c r="N968" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P968" t="inlineStr">
         <is>
-          <t>Serial number 967 does not have any valid parent or spouse relationship with other voters in house number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 967, which exceeds the household size threshold.</t>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 967, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -67838,16 +67078,16 @@
         </is>
       </c>
       <c r="N973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P973" t="inlineStr">
         <is>
-          <t>Serial number 972 does not have any valid parent or spouse relationship with other voters in house number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'. | House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 972, which exceeds the household size threshold.</t>
+          <t>House number 4/326 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' contains 6 registered voters including serial number 972, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -68340,18 +67580,10 @@
         </is>
       </c>
       <c r="N980" t="n">
-        <v>1</v>
-      </c>
-      <c r="O980" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P980" t="inlineStr">
-        <is>
-          <t>Serial number 979 does not have any valid parent or spouse relationship with other voters in house number 4-328 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O980" t="inlineStr"/>
+      <c r="P980" t="inlineStr"/>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -68414,18 +67646,10 @@
         </is>
       </c>
       <c r="N981" t="n">
-        <v>1</v>
-      </c>
-      <c r="O981" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P981" t="inlineStr">
-        <is>
-          <t>Serial number 980 does not have any valid parent or spouse relationship with other voters in house number 4-328 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O981" t="inlineStr"/>
+      <c r="P981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -70916,18 +70140,10 @@
         </is>
       </c>
       <c r="N1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1016" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1016" t="inlineStr">
-        <is>
-          <t>Serial number 1015 does not have any valid parent or spouse relationship with other voters in house number 321 on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1016" t="inlineStr"/>
+      <c r="P1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
@@ -71427,7 +70643,7 @@
       </c>
       <c r="P1023" t="inlineStr">
         <is>
-          <t>Serial number 1022 is the only voter listed under house number house on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | House number 'house' does not contain any numeric digits.</t>
+          <t>Serial number 1022 is the only voter listed under house number house on street '1-V.Kallipalayam (R.V) and (P), V.Kallipalayam (P) W.NO 4' in booth 398. | Serial number 1022 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -71723,7 +70939,7 @@
       </c>
       <c r="P1027" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1026, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1026 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -71797,7 +71013,7 @@
       </c>
       <c r="P1028" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1027, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1027 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -71871,7 +71087,7 @@
       </c>
       <c r="P1029" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1028, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1028 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -71945,7 +71161,7 @@
       </c>
       <c r="P1030" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1029, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1029 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72019,7 +71235,7 @@
       </c>
       <c r="P1031" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1030, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1030 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72093,7 +71309,7 @@
       </c>
       <c r="P1032" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1031, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1031 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72167,7 +71383,7 @@
       </c>
       <c r="P1033" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1032, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1032 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72241,7 +71457,7 @@
       </c>
       <c r="P1034" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1033, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1033 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72315,7 +71531,7 @@
       </c>
       <c r="P1035" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1034, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1034 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72389,7 +71605,7 @@
       </c>
       <c r="P1036" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1035, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1035 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72463,7 +71679,7 @@
       </c>
       <c r="P1037" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1036, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1036 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72537,7 +71753,7 @@
       </c>
       <c r="P1038" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1037, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1037 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72611,7 +71827,7 @@
       </c>
       <c r="P1039" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1038, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1038 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72685,7 +71901,7 @@
       </c>
       <c r="P1040" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1039, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1039 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72759,7 +71975,7 @@
       </c>
       <c r="P1041" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1040, therefore household-level verification could not be performed. | Serial number 1040 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1040 was flagged due to rule: INVALID_EPIC_ID. | Serial number 1040 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72833,7 +72049,7 @@
       </c>
       <c r="P1042" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1041, therefore household-level verification could not be performed. | Serial number 1041 has invalid age value 0.</t>
+          <t>Serial number 1041 was flagged due to rule: STREET_NAME_UNAVAILABLE. | Serial number 1041 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -72907,7 +72123,7 @@
       </c>
       <c r="P1043" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1042, therefore household-level verification could not be performed. | Serial number 1042 has age 2, below voting age. | Serial number 1042 does not have a valid house number recorded.</t>
+          <t>Serial number 1042 was flagged due to rule: STREET_NAME_UNAVAILABLE. | Serial number 1042 has age 2, below voting age. | Serial number 1042 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -72981,7 +72197,7 @@
       </c>
       <c r="P1044" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1043, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1043 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73055,7 +72271,7 @@
       </c>
       <c r="P1045" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1044, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1044 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73120,16 +72336,16 @@
         </is>
       </c>
       <c r="N1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, STREET_NAME_UNAVAILABLE</t>
+          <t>STREET_NAME_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P1046" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1045, therefore household-level verification could not be performed. | Serial number 1045 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1045 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73203,7 +72419,7 @@
       </c>
       <c r="P1047" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1046, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1046 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73277,7 +72493,7 @@
       </c>
       <c r="P1048" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1047, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1047 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73351,7 +72567,7 @@
       </c>
       <c r="P1049" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1048, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1048 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73425,7 +72641,7 @@
       </c>
       <c r="P1050" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1049, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1049 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73499,7 +72715,7 @@
       </c>
       <c r="P1051" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1050, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1050 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73573,7 +72789,7 @@
       </c>
       <c r="P1052" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1051, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1051 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73647,7 +72863,7 @@
       </c>
       <c r="P1053" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1052, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1052 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73721,7 +72937,7 @@
       </c>
       <c r="P1054" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1053, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1053 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73795,7 +73011,7 @@
       </c>
       <c r="P1055" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1054, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1054 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73869,7 +73085,7 @@
       </c>
       <c r="P1056" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1055, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1055 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73943,7 +73159,7 @@
       </c>
       <c r="P1057" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1056, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1056 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74017,7 +73233,7 @@
       </c>
       <c r="P1058" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1057, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1057 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74091,7 +73307,7 @@
       </c>
       <c r="P1059" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1058, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1058 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74165,7 +73381,7 @@
       </c>
       <c r="P1060" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1059, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1059 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74239,7 +73455,7 @@
       </c>
       <c r="P1061" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1060, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1060 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74313,7 +73529,7 @@
       </c>
       <c r="P1062" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1061, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1061 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74387,7 +73603,7 @@
       </c>
       <c r="P1063" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1062, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1062 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74461,7 +73677,7 @@
       </c>
       <c r="P1064" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1063, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1063 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74535,7 +73751,7 @@
       </c>
       <c r="P1065" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1064, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1064 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74609,7 +73825,7 @@
       </c>
       <c r="P1066" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1065, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1065 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74683,7 +73899,7 @@
       </c>
       <c r="P1067" t="inlineStr">
         <is>
-          <t>Serial number 1066 shares the same EPIC ID (WRK0465435) with serial number(s) [81] in part(s) ['398'] inside assembly ['115']. | Street name is missing for serial number 1066, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1066 shares the same EPIC ID (WRK0465435) with serial number(s) [81] in part(s) ['398'] inside assembly ['115']. | Serial number 1066 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -74757,7 +73973,7 @@
       </c>
       <c r="P1068" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1067, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1067 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
